--- a/ValueSet-CIE10VS.xlsx
+++ b/ValueSet-CIE10VS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/ValueSet/CIE10VS</t>
+    <t>http://172.209.216.154:3447/fhir/ValueSet/CIE10VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
